--- a/data/case1/20/Q2_14.xlsx
+++ b/data/case1/20/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.24071257181286398</v>
+        <v>0.26837214234553386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999583091324</v>
+        <v>-0.06229747168520916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999617954529</v>
+        <v>-0.0039999999674176223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999303375091</v>
+        <v>-0.0079999999419353429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999582512871</v>
+        <v>-0.0029999999654295451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999518063305</v>
+        <v>-0.0019999999613578012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998984059424</v>
+        <v>-0.0099999999167765807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998975781601</v>
+        <v>-0.0099999999145690133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999502453569</v>
+        <v>-0.0019999999556157277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.018659784680815861</v>
+        <v>-0.0019999999533446555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999439267455</v>
+        <v>0.0061274791962206976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999412024252</v>
+        <v>-0.0034999999441360785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999455731512</v>
+        <v>-0.0034999999405922466</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999176285641</v>
+        <v>-0.0079999999150484058</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996625665943</v>
+        <v>-0.00099999995255029006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999627966503</v>
+        <v>-0.0019999999464803686</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.045980834902577428</v>
+        <v>-0.0019999999455597717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999559690025</v>
+        <v>-0.0039999999343862669</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999709876555</v>
+        <v>-0.0039999999761510807</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999630282446</v>
+        <v>-0.0039999999744484427</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.037668188243359602</v>
+        <v>-0.0039999999741731074</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999609747761</v>
+        <v>-0.0039999999739439573</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999953174239</v>
+        <v>-0.031666237181782186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999850325523</v>
+        <v>-0.019999999874287688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999848447914</v>
+        <v>-0.019999999872634788</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999465507017</v>
+        <v>-0.018635793561399439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999439052623</v>
+        <v>-0.0024999999570654019</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999347648512</v>
+        <v>-0.0019999999561717274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998927814389</v>
+        <v>-0.0069999999264753754</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999538008275</v>
+        <v>-0.059999999637014856</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998850498457</v>
+        <v>0.050438407403776253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998647071209</v>
+        <v>-0.0099999999120434779</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999904189977</v>
+        <v>-0.0039999999446038714</v>
       </c>
     </row>
   </sheetData>
